--- a/lista_reserva.xlsx
+++ b/lista_reserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>tecnico</t>
+          <t>Tecnico</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
         </is>
       </c>
     </row>
@@ -503,6 +508,7 @@
           <t>Mario Barbosa</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -537,6 +543,7 @@
           <t>Carlos Henrique</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -571,6 +578,7 @@
           <t>Carlos Henrique</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -605,6 +613,7 @@
           <t>Ana Carolina</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -639,6 +648,7 @@
           <t>José Albino</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -673,6 +683,7 @@
           <t>Roberta Andrade</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -707,6 +718,153 @@
           <t>Manoel Carlos</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Capacete</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Proteger a cabeça</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>04/09/2022</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>João Batista</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Corda</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Proteger a cabeça</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>08/09/2022</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ivan Dantas</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>missao.certificacao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lanterna</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Proporcionar iluminação para realização de manutencão em antena externa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25/12/2022</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Leticia Arruda</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>missao.certificacao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Martelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mario Barbosa</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
